--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H2">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I2">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J2">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>19.51690929409055</v>
+        <v>11.21754698656878</v>
       </c>
       <c r="R2">
-        <v>175.652183646815</v>
+        <v>100.957922879119</v>
       </c>
       <c r="S2">
-        <v>0.00497519210821088</v>
+        <v>0.002704634582333841</v>
       </c>
       <c r="T2">
-        <v>0.004975192108210881</v>
+        <v>0.002704634582333842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H3">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I3">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J3">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>9.815057458668889</v>
+        <v>5.227184231221777</v>
       </c>
       <c r="R3">
-        <v>88.33551712802</v>
+        <v>47.044658080996</v>
       </c>
       <c r="S3">
-        <v>0.002502025073447023</v>
+        <v>0.001260313262509183</v>
       </c>
       <c r="T3">
-        <v>0.002502025073447023</v>
+        <v>0.001260313262509183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H4">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I4">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J4">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>3.176557542372222</v>
+        <v>1.464519328500556</v>
       </c>
       <c r="R4">
-        <v>28.58901788135</v>
+        <v>13.180673956505</v>
       </c>
       <c r="S4">
-        <v>0.0008097585420901277</v>
+        <v>0.0003531065773204775</v>
       </c>
       <c r="T4">
-        <v>0.0008097585420901277</v>
+        <v>0.0003531065773204776</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H5">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I5">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J5">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>9.398289228003888</v>
+        <v>5.274445863990779</v>
       </c>
       <c r="R5">
-        <v>84.58460305203499</v>
+        <v>47.47001277591701</v>
       </c>
       <c r="S5">
-        <v>0.002395783763364931</v>
+        <v>0.001271708396093883</v>
       </c>
       <c r="T5">
-        <v>0.002395783763364931</v>
+        <v>0.001271708396093884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>44.754054</v>
       </c>
       <c r="I6">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J6">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>1761.027454834888</v>
+        <v>1900.544399167281</v>
       </c>
       <c r="R6">
-        <v>15849.247093514</v>
+        <v>17104.89959250553</v>
       </c>
       <c r="S6">
-        <v>0.4489158484888831</v>
+        <v>0.4582354870813897</v>
       </c>
       <c r="T6">
-        <v>0.4489158484888832</v>
+        <v>0.4582354870813898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>44.754054</v>
       </c>
       <c r="I7">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J7">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
         <v>885.6210476282426</v>
@@ -883,10 +883,10 @@
         <v>7970.589428654183</v>
       </c>
       <c r="S7">
-        <v>0.2257598670276959</v>
+        <v>0.2135298666567689</v>
       </c>
       <c r="T7">
-        <v>0.2257598670276959</v>
+        <v>0.2135298666567689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>44.754054</v>
       </c>
       <c r="I8">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J8">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>286.6235098850466</v>
+        <v>248.1276887528634</v>
       </c>
       <c r="R8">
-        <v>2579.61158896542</v>
+        <v>2233.14919877577</v>
       </c>
       <c r="S8">
-        <v>0.07306520735020079</v>
+        <v>0.05982544389063765</v>
       </c>
       <c r="T8">
-        <v>0.07306520735020079</v>
+        <v>0.05982544389063766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>44.754054</v>
       </c>
       <c r="I9">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J9">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>848.0156929358245</v>
+        <v>893.6283982158689</v>
       </c>
       <c r="R9">
-        <v>7632.141236422421</v>
+        <v>8042.655583942819</v>
       </c>
       <c r="S9">
-        <v>0.2161736225525607</v>
+        <v>0.215460498847398</v>
       </c>
       <c r="T9">
-        <v>0.2161736225525607</v>
+        <v>0.2154604988473981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3931446666666667</v>
+        <v>0.7460013333333334</v>
       </c>
       <c r="H10">
-        <v>1.179434</v>
+        <v>2.238004</v>
       </c>
       <c r="I10">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554834</v>
       </c>
       <c r="J10">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554835</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>46.40955331478423</v>
+        <v>95.04001509034178</v>
       </c>
       <c r="R10">
-        <v>417.685979833058</v>
+        <v>855.360135813076</v>
       </c>
       <c r="S10">
-        <v>0.01183058443926974</v>
+        <v>0.02291485935620712</v>
       </c>
       <c r="T10">
-        <v>0.01183058443926974</v>
+        <v>0.02291485935620712</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3931446666666667</v>
+        <v>0.7460013333333334</v>
       </c>
       <c r="H11">
-        <v>1.179434</v>
+        <v>2.238004</v>
       </c>
       <c r="I11">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554834</v>
       </c>
       <c r="J11">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554835</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>23.33937333785156</v>
+        <v>44.28701469315378</v>
       </c>
       <c r="R11">
-        <v>210.054360040664</v>
+        <v>398.583132238384</v>
       </c>
       <c r="S11">
-        <v>0.005949603202604696</v>
+        <v>0.0106779308908488</v>
       </c>
       <c r="T11">
-        <v>0.005949603202604696</v>
+        <v>0.0106779308908488</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3931446666666667</v>
+        <v>0.7460013333333334</v>
       </c>
       <c r="H12">
-        <v>1.179434</v>
+        <v>2.238004</v>
       </c>
       <c r="I12">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554834</v>
       </c>
       <c r="J12">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554835</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>7.55358414586889</v>
+        <v>12.40805492033556</v>
       </c>
       <c r="R12">
-        <v>67.98225731282001</v>
+        <v>111.67249428302</v>
       </c>
       <c r="S12">
-        <v>0.001925537064550102</v>
+        <v>0.002991674960418617</v>
       </c>
       <c r="T12">
-        <v>0.001925537064550102</v>
+        <v>0.002991674960418617</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3931446666666667</v>
+        <v>0.7460013333333334</v>
       </c>
       <c r="H13">
-        <v>1.179434</v>
+        <v>2.238004</v>
       </c>
       <c r="I13">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554834</v>
       </c>
       <c r="J13">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554835</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N13">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q13">
-        <v>22.34833386897356</v>
+        <v>44.68743613082979</v>
       </c>
       <c r="R13">
-        <v>201.135004820762</v>
+        <v>402.1869251774681</v>
       </c>
       <c r="S13">
-        <v>0.005696970387121957</v>
+        <v>0.01077447549807381</v>
       </c>
       <c r="T13">
-        <v>0.005696970387121956</v>
+        <v>0.01077447549807382</v>
       </c>
     </row>
   </sheetData>
